--- a/QA Compilation 2019/QA Report/4. Treasury/Treasury_QA-Report- 06-27-2019-Peachie.xlsx
+++ b/QA Compilation 2019/QA Report/4. Treasury/Treasury_QA-Report- 06-27-2019-Peachie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\QA Compilation 2019\QA Report\4. Treasury\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\QAReport\QA Compilation 2019\QA Report\4. Treasury\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB856BF5-23E3-4590-AFD2-1DE7BDADF680}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DFC55A-388B-4E9E-B1DF-46BDC423BEF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,8 +25,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId10"/>
-    <pivotCache cacheId="5" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId10"/>
+    <pivotCache cacheId="1" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="535">
   <si>
     <t>1.1 Recruitment, Selection and Placement</t>
   </si>
@@ -1895,6 +1895,9 @@
   </si>
   <si>
     <t>Fig 1.1.1.11 Record of Tax Credit</t>
+  </si>
+  <si>
+    <t>xxxx</t>
   </si>
 </sst>
 </file>
@@ -2879,51 +2882,6 @@
     <xf numFmtId="0" fontId="37" fillId="11" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="39" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3000,125 +2958,57 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="93">
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="2"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="2"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-4.9989318521683403E-2"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor theme="2"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFC000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF0070C0"/>
-      </font>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -4978,6 +4868,119 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-4.9989318521683403E-2"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="2"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFFC000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF0070C0"/>
+      </font>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -13070,7 +13073,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="B. Human Resource">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="B. Human Resource">
   <location ref="A1:A71" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField axis="axisRow" showAll="0">
@@ -13982,7 +13985,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Modules">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Modules">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
@@ -14099,7 +14102,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Modules">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0400-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Modules">
   <location ref="A3:B7" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="27">
     <pivotField showAll="0"/>
@@ -14200,55 +14203,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table133" displayName="Table133" ref="A2:AA160" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table133" displayName="Table133" ref="A2:AA160" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <tableColumns count="27">
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ready" dataDxfId="77" totalsRowDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Module" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Forms/Activities" dataDxfId="74" totalsRowDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Owner" dataDxfId="72" totalsRowDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Start Date" dataDxfId="70" totalsRowDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="End Date" dataDxfId="68" totalsRowDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="C" dataDxfId="66" totalsRowDxfId="65">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ready" dataDxfId="58" totalsRowDxfId="57"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Module" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Forms/Activities" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Owner" dataDxfId="53" totalsRowDxfId="52"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Start Date" dataDxfId="51" totalsRowDxfId="50"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="End Date" dataDxfId="49" totalsRowDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="C" dataDxfId="47" totalsRowDxfId="46">
       <calculatedColumnFormula>IF(COUNTIF((G4:G18),"n")=0,"l","n")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="R" dataDxfId="64" totalsRowDxfId="63"/>
-    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="U" dataDxfId="62" totalsRowDxfId="61"/>
-    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="D" dataDxfId="60" totalsRowDxfId="59"/>
-    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="T" dataDxfId="58" totalsRowDxfId="57"/>
-    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="P" dataDxfId="56" totalsRowDxfId="55"/>
-    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="E" dataDxfId="54" totalsRowDxfId="53"/>
-    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="FD" dataDxfId="52" totalsRowDxfId="51"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="F" dataDxfId="50" totalsRowDxfId="49"/>
-    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="S" dataDxfId="48" totalsRowDxfId="47"/>
-    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="M" dataDxfId="46" totalsRowDxfId="45"/>
-    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="TT" dataDxfId="44" totalsRowDxfId="43"/>
-    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="HD" dataDxfId="42" totalsRowDxfId="41"/>
-    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="IM" dataDxfId="40" totalsRowDxfId="39"/>
-    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="FT" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="DT" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="CP" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="NF" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Bugs" dataDxfId="30" totalsRowDxfId="29">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="R" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="U" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="D" dataDxfId="41" totalsRowDxfId="40"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="T" dataDxfId="39" totalsRowDxfId="38"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="P" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="E" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="FD" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="F" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="S" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="M" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="TT" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="HD" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="IM" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="FT" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="DT" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="CP" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="NF" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Bugs" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Enhancements" dataDxfId="28" totalsRowDxfId="27">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Enhancements" dataDxfId="9" totalsRowDxfId="8">
       <calculatedColumnFormula>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Comments" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Comments" dataDxfId="7" totalsRowDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:G185" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:G185" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:G185" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sub Module"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Figure No" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Figure No" dataDxfId="4"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Form/Report Name"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Owner " dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Owner " dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Assigned Date"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Completion Date"/>
   </tableColumns>
@@ -14257,14 +14260,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table13" displayName="Table13" ref="A1:G147" totalsRowShown="0" headerRowDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table13" displayName="Table13" ref="A1:G147" totalsRowShown="0" headerRowDxfId="2">
   <autoFilter ref="A1:G147" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Sub Module"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Figure No" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Figure No" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Form/Report Name"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Owner " dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Owner " dataDxfId="0"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Assigned Date"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Completion Date"/>
   </tableColumns>
@@ -16571,26 +16574,26 @@
   <sheetData>
     <row r="3" spans="2:13">
       <c r="B3" s="76"/>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="173" t="s">
         <v>361</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="172" t="s">
         <v>360</v>
       </c>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144" t="s">
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172" t="s">
         <v>303</v>
       </c>
-      <c r="I3" s="144"/>
-      <c r="J3" s="144"/>
-      <c r="K3" s="144"/>
-      <c r="L3" s="144"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
     </row>
     <row r="4" spans="2:13">
       <c r="B4" s="76"/>
-      <c r="C4" s="146"/>
+      <c r="C4" s="174"/>
       <c r="D4" s="76" t="s">
         <v>327</v>
       </c>
@@ -16916,7 +16919,7 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="15.75" thickBot="1">
-      <c r="B16" s="142"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="85">
         <f>SUM(C5:C15)</f>
         <v>151</v>
@@ -16956,27 +16959,27 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B17" s="143"/>
+      <c r="B17" s="171"/>
       <c r="C17" s="89"/>
       <c r="D17" s="90"/>
       <c r="E17" s="91" t="s">
         <v>363</v>
       </c>
-      <c r="F17" s="147">
+      <c r="F17" s="175">
         <f>F16+G16</f>
         <v>144</v>
       </c>
-      <c r="G17" s="147"/>
+      <c r="G17" s="175"/>
       <c r="H17" s="92"/>
       <c r="I17" s="91" t="s">
         <v>362</v>
       </c>
-      <c r="J17" s="147">
+      <c r="J17" s="175">
         <f>J16+L16+K16</f>
         <v>141</v>
       </c>
-      <c r="K17" s="147"/>
-      <c r="L17" s="148"/>
+      <c r="K17" s="175"/>
+      <c r="L17" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -17019,21 +17022,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="21">
-      <c r="B1" s="150" t="s">
+      <c r="B1" s="178" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="152" t="s">
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
+      <c r="E1" s="180" t="s">
         <v>302</v>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="149" t="s">
+      <c r="F1" s="180"/>
+      <c r="G1" s="180"/>
+      <c r="H1" s="177" t="s">
         <v>303</v>
       </c>
-      <c r="I1" s="149"/>
-      <c r="J1" s="149"/>
+      <c r="I1" s="177"/>
+      <c r="J1" s="177"/>
     </row>
     <row r="2" spans="2:10">
       <c r="B2" s="18"/>
@@ -21803,7 +21806,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -21825,34 +21828,34 @@
     <row r="1" spans="1:27" ht="16.5">
       <c r="E1" s="98"/>
       <c r="F1" s="98"/>
-      <c r="G1" s="153" t="s">
+      <c r="G1" s="181" t="s">
         <v>386</v>
       </c>
-      <c r="H1" s="153"/>
-      <c r="I1" s="153"/>
-      <c r="J1" s="153"/>
-      <c r="K1" s="153"/>
-      <c r="L1" s="153"/>
-      <c r="M1" s="153"/>
-      <c r="N1" s="154" t="s">
+      <c r="H1" s="181"/>
+      <c r="I1" s="181"/>
+      <c r="J1" s="181"/>
+      <c r="K1" s="181"/>
+      <c r="L1" s="181"/>
+      <c r="M1" s="181"/>
+      <c r="N1" s="182" t="s">
         <v>387</v>
       </c>
-      <c r="O1" s="154"/>
-      <c r="P1" s="154"/>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="155" t="s">
+      <c r="O1" s="182"/>
+      <c r="P1" s="182"/>
+      <c r="Q1" s="182"/>
+      <c r="R1" s="182"/>
+      <c r="S1" s="183" t="s">
         <v>388</v>
       </c>
-      <c r="T1" s="155"/>
-      <c r="U1" s="155"/>
-      <c r="V1" s="155"/>
-      <c r="W1" s="155"/>
-      <c r="X1" s="155"/>
-      <c r="Y1" s="156" t="s">
+      <c r="T1" s="183"/>
+      <c r="U1" s="183"/>
+      <c r="V1" s="183"/>
+      <c r="W1" s="183"/>
+      <c r="X1" s="183"/>
+      <c r="Y1" s="184" t="s">
         <v>413</v>
       </c>
-      <c r="Z1" s="156"/>
+      <c r="Z1" s="184"/>
     </row>
     <row r="2" spans="1:27" s="100" customFormat="1" ht="28.5">
       <c r="A2" s="98" t="s">
@@ -21941,7 +21944,7 @@
       <c r="A3" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B3" s="173" t="s">
+      <c r="B3" s="158" t="s">
         <v>525</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -21950,7 +21953,7 @@
       <c r="D3" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="E3" s="148" t="s">
         <v>485</v>
       </c>
       <c r="F3" s="106" t="s">
@@ -21998,7 +22001,7 @@
       <c r="A4" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B4" s="173" t="s">
+      <c r="B4" s="158" t="s">
         <v>525</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -22007,7 +22010,7 @@
       <c r="D4" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E4" s="163" t="s">
+      <c r="E4" s="148" t="s">
         <v>485</v>
       </c>
       <c r="F4" s="106" t="s">
@@ -22081,7 +22084,7 @@
       <c r="A5" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="158" t="s">
         <v>525</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -22090,7 +22093,7 @@
       <c r="D5" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E5" s="163"/>
+      <c r="E5" s="148"/>
       <c r="F5" s="106"/>
       <c r="G5" s="110"/>
       <c r="H5" s="110"/>
@@ -22134,7 +22137,7 @@
       <c r="A6" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="158" t="s">
         <v>525</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -22143,7 +22146,7 @@
       <c r="D6" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E6" s="163"/>
+      <c r="E6" s="148"/>
       <c r="F6" s="106"/>
       <c r="G6" s="110" t="s">
         <v>384</v>
@@ -22212,87 +22215,87 @@
       </c>
     </row>
     <row r="7" spans="1:27" ht="15">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="147" t="s">
         <v>385</v>
       </c>
-      <c r="B7" s="173" t="s">
+      <c r="B7" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C7" s="169" t="s">
+      <c r="C7" s="154" t="s">
         <v>491</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E7" s="165"/>
-      <c r="F7" s="166"/>
-      <c r="G7" s="172" t="s">
+      <c r="E7" s="150"/>
+      <c r="F7" s="151"/>
+      <c r="G7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H7" s="172" t="s">
+      <c r="H7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I7" s="172" t="s">
+      <c r="I7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J7" s="172" t="s">
+      <c r="J7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K7" s="172" t="s">
+      <c r="K7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L7" s="172" t="s">
+      <c r="L7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M7" s="172" t="s">
+      <c r="M7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N7" s="172" t="s">
+      <c r="N7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O7" s="172" t="s">
+      <c r="O7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P7" s="172" t="s">
+      <c r="P7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q7" s="172" t="s">
+      <c r="Q7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R7" s="172" t="s">
+      <c r="R7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S7" s="172" t="s">
+      <c r="S7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T7" s="172" t="s">
+      <c r="T7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U7" s="172" t="s">
+      <c r="U7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V7" s="172" t="s">
+      <c r="V7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W7" s="172" t="s">
+      <c r="W7" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X7" s="167"/>
+      <c r="X7" s="152"/>
       <c r="Y7" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z7" s="168" t="str">
+      <c r="Z7" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA7" s="177"/>
+      <c r="AA7" s="162"/>
     </row>
     <row r="8" spans="1:27" ht="15">
       <c r="A8" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B8" s="173" t="s">
+      <c r="B8" s="158" t="s">
         <v>525</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -22301,7 +22304,7 @@
       <c r="D8" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E8" s="163"/>
+      <c r="E8" s="148"/>
       <c r="F8" s="106"/>
       <c r="G8" s="110"/>
       <c r="H8" s="141" t="s">
@@ -22369,7 +22372,7 @@
       <c r="A9" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B9" s="173" t="s">
+      <c r="B9" s="158" t="s">
         <v>525</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -22378,57 +22381,57 @@
       <c r="D9" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E9" s="163"/>
+      <c r="E9" s="148"/>
       <c r="F9" s="106"/>
-      <c r="G9" s="184" t="s">
+      <c r="G9" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="H9" s="184" t="s">
+      <c r="H9" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="I9" s="184" t="s">
+      <c r="I9" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="J9" s="184" t="s">
+      <c r="J9" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="K9" s="184" t="s">
+      <c r="K9" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="L9" s="184" t="s">
+      <c r="L9" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="M9" s="184" t="s">
+      <c r="M9" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="N9" s="184" t="s">
+      <c r="N9" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="O9" s="184" t="s">
+      <c r="O9" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="P9" s="184" t="s">
+      <c r="P9" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="Q9" s="184" t="s">
+      <c r="Q9" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="R9" s="184" t="s">
+      <c r="R9" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="S9" s="184" t="s">
+      <c r="S9" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="T9" s="184" t="s">
+      <c r="T9" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="U9" s="184" t="s">
+      <c r="U9" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="V9" s="184" t="s">
+      <c r="V9" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="W9" s="184" t="s">
+      <c r="W9" s="169" t="s">
         <v>383</v>
       </c>
       <c r="X9" s="110"/>
@@ -22448,7 +22451,7 @@
       <c r="A10" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B10" s="173" t="s">
+      <c r="B10" s="158" t="s">
         <v>525</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -22457,55 +22460,57 @@
       <c r="D10" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E10" s="163"/>
+      <c r="E10" s="148"/>
       <c r="F10" s="106"/>
-      <c r="G10" s="184"/>
-      <c r="H10" s="184" t="s">
+      <c r="G10" s="169" t="s">
+        <v>534</v>
+      </c>
+      <c r="H10" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="I10" s="184" t="s">
+      <c r="I10" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="J10" s="184" t="s">
+      <c r="J10" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="K10" s="184" t="s">
+      <c r="K10" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="L10" s="184" t="s">
+      <c r="L10" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="M10" s="184" t="s">
+      <c r="M10" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="N10" s="184" t="s">
+      <c r="N10" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="O10" s="184" t="s">
+      <c r="O10" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="P10" s="184" t="s">
+      <c r="P10" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="Q10" s="184" t="s">
+      <c r="Q10" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="R10" s="184" t="s">
+      <c r="R10" s="169" t="s">
         <v>383</v>
       </c>
-      <c r="S10" s="184" t="s">
+      <c r="S10" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="T10" s="184" t="s">
+      <c r="T10" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="U10" s="184" t="s">
+      <c r="U10" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="V10" s="184" t="s">
+      <c r="V10" s="169" t="s">
         <v>384</v>
       </c>
-      <c r="W10" s="184" t="s">
+      <c r="W10" s="169" t="s">
         <v>384</v>
       </c>
       <c r="X10" s="110"/>
@@ -22525,305 +22530,305 @@
       <c r="A11" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C11" s="174" t="s">
+      <c r="C11" s="159" t="s">
         <v>509</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E11" s="157"/>
-      <c r="F11" s="158"/>
-      <c r="G11" s="172" t="s">
+      <c r="E11" s="142"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H11" s="172" t="s">
+      <c r="H11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I11" s="172" t="s">
+      <c r="I11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J11" s="172" t="s">
+      <c r="J11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K11" s="172" t="s">
+      <c r="K11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L11" s="172" t="s">
+      <c r="L11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M11" s="172" t="s">
+      <c r="M11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N11" s="172" t="s">
+      <c r="N11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O11" s="172" t="s">
+      <c r="O11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P11" s="172" t="s">
+      <c r="P11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q11" s="172" t="s">
+      <c r="Q11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R11" s="172" t="s">
+      <c r="R11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S11" s="172" t="s">
+      <c r="S11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T11" s="172" t="s">
+      <c r="T11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U11" s="172" t="s">
+      <c r="U11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V11" s="172" t="s">
+      <c r="V11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W11" s="172" t="s">
+      <c r="W11" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X11" s="159"/>
+      <c r="X11" s="144"/>
       <c r="Y11" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z11" s="160" t="str">
+      <c r="Z11" s="145" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA11" s="161"/>
+      <c r="AA11" s="146"/>
     </row>
     <row r="12" spans="1:27" ht="15">
       <c r="A12" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C12" s="174" t="s">
+      <c r="C12" s="159" t="s">
         <v>510</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E12" s="157"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="172" t="s">
+      <c r="E12" s="142"/>
+      <c r="F12" s="143"/>
+      <c r="G12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H12" s="172" t="s">
+      <c r="H12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I12" s="172" t="s">
+      <c r="I12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J12" s="172" t="s">
+      <c r="J12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K12" s="172" t="s">
+      <c r="K12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L12" s="172" t="s">
+      <c r="L12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M12" s="172" t="s">
+      <c r="M12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N12" s="172" t="s">
+      <c r="N12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O12" s="172" t="s">
+      <c r="O12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P12" s="172" t="s">
+      <c r="P12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q12" s="172" t="s">
+      <c r="Q12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R12" s="172" t="s">
+      <c r="R12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S12" s="172" t="s">
+      <c r="S12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T12" s="172" t="s">
+      <c r="T12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U12" s="172" t="s">
+      <c r="U12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V12" s="172" t="s">
+      <c r="V12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W12" s="172" t="s">
+      <c r="W12" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X12" s="159"/>
+      <c r="X12" s="144"/>
       <c r="Y12" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z12" s="160" t="str">
+      <c r="Z12" s="145" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA12" s="161"/>
+      <c r="AA12" s="146"/>
     </row>
     <row r="13" spans="1:27" ht="15">
       <c r="A13" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C13" s="174" t="s">
+      <c r="C13" s="159" t="s">
         <v>512</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E13" s="157"/>
-      <c r="F13" s="158"/>
-      <c r="G13" s="172" t="s">
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H13" s="172" t="s">
+      <c r="H13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I13" s="172" t="s">
+      <c r="I13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J13" s="172" t="s">
+      <c r="J13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K13" s="172" t="s">
+      <c r="K13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L13" s="172" t="s">
+      <c r="L13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M13" s="172" t="s">
+      <c r="M13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N13" s="172" t="s">
+      <c r="N13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O13" s="172" t="s">
+      <c r="O13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P13" s="172" t="s">
+      <c r="P13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q13" s="172" t="s">
+      <c r="Q13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R13" s="172" t="s">
+      <c r="R13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S13" s="172" t="s">
+      <c r="S13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T13" s="172" t="s">
+      <c r="T13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U13" s="172" t="s">
+      <c r="U13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V13" s="172" t="s">
+      <c r="V13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W13" s="172" t="s">
+      <c r="W13" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X13" s="159"/>
+      <c r="X13" s="144"/>
       <c r="Y13" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z13" s="160" t="str">
+      <c r="Z13" s="145" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA13" s="161"/>
+      <c r="AA13" s="146"/>
     </row>
     <row r="14" spans="1:27" ht="15">
       <c r="A14" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C14" s="164" t="s">
+      <c r="C14" s="149" t="s">
         <v>511</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E14" s="165"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="172" t="s">
+      <c r="E14" s="150"/>
+      <c r="F14" s="151"/>
+      <c r="G14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H14" s="172" t="s">
+      <c r="H14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I14" s="172" t="s">
+      <c r="I14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J14" s="172" t="s">
+      <c r="J14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K14" s="172" t="s">
+      <c r="K14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L14" s="172" t="s">
+      <c r="L14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M14" s="172" t="s">
+      <c r="M14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N14" s="172" t="s">
+      <c r="N14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O14" s="172" t="s">
+      <c r="O14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P14" s="172" t="s">
+      <c r="P14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q14" s="172" t="s">
+      <c r="Q14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R14" s="172" t="s">
+      <c r="R14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S14" s="172" t="s">
+      <c r="S14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T14" s="172" t="s">
+      <c r="T14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U14" s="172" t="s">
+      <c r="U14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V14" s="172" t="s">
+      <c r="V14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W14" s="172" t="s">
+      <c r="W14" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X14" s="167"/>
+      <c r="X14" s="152"/>
       <c r="Y14" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z14" s="168" t="str">
+      <c r="Z14" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
@@ -22833,170 +22838,170 @@
       <c r="A15" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="174" t="s">
+      <c r="C15" s="159" t="s">
         <v>513</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E15" s="157"/>
-      <c r="F15" s="158"/>
-      <c r="G15" s="172" t="s">
+      <c r="E15" s="142"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H15" s="172" t="s">
+      <c r="H15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I15" s="172" t="s">
+      <c r="I15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J15" s="172" t="s">
+      <c r="J15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K15" s="172" t="s">
+      <c r="K15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L15" s="172" t="s">
+      <c r="L15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M15" s="172" t="s">
+      <c r="M15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N15" s="172" t="s">
+      <c r="N15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O15" s="172" t="s">
+      <c r="O15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P15" s="172" t="s">
+      <c r="P15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q15" s="172" t="s">
+      <c r="Q15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R15" s="172" t="s">
+      <c r="R15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S15" s="172" t="s">
+      <c r="S15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T15" s="172" t="s">
+      <c r="T15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U15" s="172" t="s">
+      <c r="U15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V15" s="172" t="s">
+      <c r="V15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W15" s="172" t="s">
+      <c r="W15" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X15" s="159"/>
+      <c r="X15" s="144"/>
       <c r="Y15" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z15" s="160" t="str">
+      <c r="Z15" s="145" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA15" s="161"/>
+      <c r="AA15" s="146"/>
     </row>
     <row r="16" spans="1:27" ht="15">
       <c r="A16" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C16" s="174" t="s">
+      <c r="C16" s="159" t="s">
         <v>514</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E16" s="157"/>
-      <c r="F16" s="158"/>
-      <c r="G16" s="172" t="s">
+      <c r="E16" s="142"/>
+      <c r="F16" s="143"/>
+      <c r="G16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H16" s="172" t="s">
+      <c r="H16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I16" s="172" t="s">
+      <c r="I16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J16" s="172" t="s">
+      <c r="J16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K16" s="172" t="s">
+      <c r="K16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L16" s="172" t="s">
+      <c r="L16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M16" s="172" t="s">
+      <c r="M16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N16" s="172" t="s">
+      <c r="N16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O16" s="172" t="s">
+      <c r="O16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P16" s="172" t="s">
+      <c r="P16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q16" s="172" t="s">
+      <c r="Q16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R16" s="172" t="s">
+      <c r="R16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S16" s="172" t="s">
+      <c r="S16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T16" s="172" t="s">
+      <c r="T16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U16" s="172" t="s">
+      <c r="U16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V16" s="172" t="s">
+      <c r="V16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W16" s="172" t="s">
+      <c r="W16" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X16" s="159"/>
+      <c r="X16" s="144"/>
       <c r="Y16" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z16" s="160" t="str">
+      <c r="Z16" s="145" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA16" s="161"/>
+      <c r="AA16" s="146"/>
     </row>
     <row r="17" spans="1:27" ht="15">
       <c r="A17" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C17" s="175" t="s">
+      <c r="C17" s="160" t="s">
         <v>496</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E17" s="163"/>
+      <c r="E17" s="148"/>
       <c r="F17" s="106"/>
       <c r="G17" s="110" t="s">
         <v>383</v>
@@ -23049,12 +23054,12 @@
       <c r="W17" s="110" t="s">
         <v>384</v>
       </c>
-      <c r="X17" s="167"/>
+      <c r="X17" s="152"/>
       <c r="Y17" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z17" s="168" t="str">
+      <c r="Z17" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
@@ -23064,7 +23069,7 @@
       <c r="A18" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="173" t="s">
+      <c r="B18" s="158" t="s">
         <v>525</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -23073,7 +23078,7 @@
       <c r="D18" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E18" s="163"/>
+      <c r="E18" s="148"/>
       <c r="F18" s="106"/>
       <c r="G18" s="110" t="s">
         <v>384</v>
@@ -23141,16 +23146,16 @@
       <c r="A19" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B19" s="173" t="s">
+      <c r="B19" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C19" s="175" t="s">
+      <c r="C19" s="160" t="s">
         <v>497</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E19" s="163"/>
+      <c r="E19" s="148"/>
       <c r="F19" s="106"/>
       <c r="G19" s="110" t="s">
         <v>383</v>
@@ -23220,16 +23225,16 @@
       <c r="A20" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B20" s="173" t="s">
+      <c r="B20" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C20" s="175" t="s">
+      <c r="C20" s="160" t="s">
         <v>501</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E20" s="163"/>
+      <c r="E20" s="148"/>
       <c r="F20" s="106"/>
       <c r="G20" s="110" t="s">
         <v>523</v>
@@ -23282,31 +23287,31 @@
       <c r="W20" s="110" t="s">
         <v>383</v>
       </c>
-      <c r="X20" s="159"/>
+      <c r="X20" s="144"/>
       <c r="Y20" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z20" s="160" t="str">
+      <c r="Z20" s="145" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA20" s="161"/>
+      <c r="AA20" s="146"/>
     </row>
     <row r="21" spans="1:27" ht="15">
       <c r="A21" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="160" t="s">
         <v>502</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E21" s="163"/>
+      <c r="E21" s="148"/>
       <c r="F21" s="106"/>
       <c r="G21" s="110"/>
       <c r="H21" s="110" t="s">
@@ -23357,22 +23362,22 @@
       <c r="W21" s="110" t="s">
         <v>384</v>
       </c>
-      <c r="X21" s="159"/>
+      <c r="X21" s="144"/>
       <c r="Y21" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z21" s="160" t="str">
+      <c r="Z21" s="145" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA21" s="161"/>
+      <c r="AA21" s="146"/>
     </row>
     <row r="22" spans="1:27" ht="15">
       <c r="A22" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="158" t="s">
         <v>525</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -23381,7 +23386,7 @@
       <c r="D22" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E22" s="163"/>
+      <c r="E22" s="148"/>
       <c r="F22" s="106"/>
       <c r="G22" s="110" t="s">
         <v>383</v>
@@ -23434,32 +23439,32 @@
       <c r="W22" s="110" t="s">
         <v>385</v>
       </c>
-      <c r="X22" s="159"/>
+      <c r="X22" s="144"/>
       <c r="Y22" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>n</v>
       </c>
-      <c r="Z22" s="160" t="str">
+      <c r="Z22" s="145" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA22" s="161"/>
+      <c r="AA22" s="146"/>
     </row>
     <row r="23" spans="1:27" ht="15" hidden="1">
       <c r="A23" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B23" s="173" t="s">
+      <c r="B23" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C23" s="176" t="s">
+      <c r="C23" s="161" t="s">
         <v>526</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E23" s="157"/>
-      <c r="F23" s="158"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="143"/>
       <c r="G23" s="110" t="s">
         <v>409</v>
       </c>
@@ -23511,32 +23516,32 @@
       <c r="W23" s="110" t="s">
         <v>409</v>
       </c>
-      <c r="X23" s="159"/>
+      <c r="X23" s="144"/>
       <c r="Y23" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z23" s="160" t="str">
+      <c r="Z23" s="145" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA23" s="161"/>
+      <c r="AA23" s="146"/>
     </row>
     <row r="24" spans="1:27" ht="15" hidden="1">
       <c r="A24" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B24" s="173" t="s">
+      <c r="B24" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C24" s="176" t="s">
+      <c r="C24" s="161" t="s">
         <v>527</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E24" s="157"/>
-      <c r="F24" s="158"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="143"/>
       <c r="G24" s="110" t="s">
         <v>409</v>
       </c>
@@ -23588,32 +23593,32 @@
       <c r="W24" s="110" t="s">
         <v>409</v>
       </c>
-      <c r="X24" s="159"/>
+      <c r="X24" s="144"/>
       <c r="Y24" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z24" s="160" t="str">
+      <c r="Z24" s="145" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA24" s="161"/>
+      <c r="AA24" s="146"/>
     </row>
     <row r="25" spans="1:27" ht="15" hidden="1">
       <c r="A25" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B25" s="173" t="s">
+      <c r="B25" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C25" s="176" t="s">
+      <c r="C25" s="161" t="s">
         <v>528</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="143"/>
       <c r="G25" s="110" t="s">
         <v>409</v>
       </c>
@@ -23665,89 +23670,89 @@
       <c r="W25" s="110" t="s">
         <v>409</v>
       </c>
-      <c r="X25" s="159"/>
+      <c r="X25" s="144"/>
       <c r="Y25" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z25" s="160" t="str">
+      <c r="Z25" s="145" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA25" s="161"/>
+      <c r="AA25" s="146"/>
     </row>
     <row r="26" spans="1:27" ht="15">
       <c r="A26" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B26" s="173" t="s">
+      <c r="B26" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C26" s="164" t="s">
+      <c r="C26" s="149" t="s">
         <v>532</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E26" s="165"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="172" t="s">
+      <c r="E26" s="150"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H26" s="172" t="s">
+      <c r="H26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I26" s="172" t="s">
+      <c r="I26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J26" s="172" t="s">
+      <c r="J26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K26" s="172" t="s">
+      <c r="K26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L26" s="172" t="s">
+      <c r="L26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M26" s="172" t="s">
+      <c r="M26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N26" s="172" t="s">
+      <c r="N26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O26" s="172" t="s">
+      <c r="O26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P26" s="172" t="s">
+      <c r="P26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q26" s="172" t="s">
+      <c r="Q26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R26" s="172" t="s">
+      <c r="R26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S26" s="172" t="s">
+      <c r="S26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T26" s="172" t="s">
+      <c r="T26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U26" s="172" t="s">
+      <c r="U26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V26" s="172" t="s">
+      <c r="V26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W26" s="172" t="s">
+      <c r="W26" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X26" s="167"/>
+      <c r="X26" s="152"/>
       <c r="Y26" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z26" s="168" t="str">
+      <c r="Z26" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
@@ -23757,74 +23762,74 @@
       <c r="A27" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B27" s="173" t="s">
+      <c r="B27" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C27" s="176" t="s">
+      <c r="C27" s="161" t="s">
         <v>533</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E27" s="165"/>
-      <c r="F27" s="166"/>
-      <c r="G27" s="172" t="s">
+      <c r="E27" s="150"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H27" s="172" t="s">
+      <c r="H27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I27" s="172" t="s">
+      <c r="I27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J27" s="172" t="s">
+      <c r="J27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K27" s="172" t="s">
+      <c r="K27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L27" s="172" t="s">
+      <c r="L27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M27" s="172" t="s">
+      <c r="M27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N27" s="172" t="s">
+      <c r="N27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O27" s="172" t="s">
+      <c r="O27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P27" s="172" t="s">
+      <c r="P27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q27" s="172" t="s">
+      <c r="Q27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R27" s="172" t="s">
+      <c r="R27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S27" s="172" t="s">
+      <c r="S27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T27" s="172" t="s">
+      <c r="T27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U27" s="172" t="s">
+      <c r="U27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V27" s="172" t="s">
+      <c r="V27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W27" s="172" t="s">
+      <c r="W27" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X27" s="167"/>
+      <c r="X27" s="152"/>
       <c r="Y27" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z27" s="168" t="str">
+      <c r="Z27" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
@@ -23834,17 +23839,17 @@
       <c r="A28" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B28" s="173" t="s">
+      <c r="B28" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C28" s="176" t="s">
+      <c r="C28" s="161" t="s">
         <v>529</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E28" s="165"/>
-      <c r="F28" s="166"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="151"/>
       <c r="G28" s="110" t="s">
         <v>409</v>
       </c>
@@ -23896,12 +23901,12 @@
       <c r="W28" s="110" t="s">
         <v>409</v>
       </c>
-      <c r="X28" s="167"/>
+      <c r="X28" s="152"/>
       <c r="Y28" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z28" s="168" t="str">
+      <c r="Z28" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
@@ -23911,17 +23916,17 @@
       <c r="A29" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B29" s="173" t="s">
+      <c r="B29" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C29" s="176" t="s">
+      <c r="C29" s="161" t="s">
         <v>497</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E29" s="165"/>
-      <c r="F29" s="166"/>
+      <c r="E29" s="150"/>
+      <c r="F29" s="151"/>
       <c r="G29" s="110"/>
       <c r="H29" s="110" t="s">
         <v>384</v>
@@ -23971,12 +23976,12 @@
       <c r="W29" s="110" t="s">
         <v>384</v>
       </c>
-      <c r="X29" s="167"/>
+      <c r="X29" s="152"/>
       <c r="Y29" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z29" s="168" t="str">
+      <c r="Z29" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
@@ -23986,7 +23991,7 @@
       <c r="A30" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B30" s="173" t="s">
+      <c r="B30" s="158" t="s">
         <v>525</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -23995,7 +24000,7 @@
       <c r="D30" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E30" s="163"/>
+      <c r="E30" s="148"/>
       <c r="F30" s="106"/>
       <c r="G30" s="110" t="s">
         <v>409</v>
@@ -24065,7 +24070,7 @@
       <c r="A31" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B31" s="173" t="s">
+      <c r="B31" s="158" t="s">
         <v>525</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -24074,7 +24079,7 @@
       <c r="D31" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E31" s="163"/>
+      <c r="E31" s="148"/>
       <c r="F31" s="106"/>
       <c r="G31" s="110" t="s">
         <v>409</v>
@@ -24144,7 +24149,7 @@
       <c r="A32" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B32" s="173" t="s">
+      <c r="B32" s="158" t="s">
         <v>525</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -24153,7 +24158,7 @@
       <c r="D32" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E32" s="163"/>
+      <c r="E32" s="148"/>
       <c r="F32" s="106"/>
       <c r="G32" s="110" t="s">
         <v>409</v>
@@ -24223,17 +24228,17 @@
       <c r="A33" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B33" s="173" t="s">
+      <c r="B33" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C33" s="176" t="s">
+      <c r="C33" s="161" t="s">
         <v>504</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E33" s="157"/>
-      <c r="F33" s="158"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="143"/>
       <c r="G33" s="110"/>
       <c r="H33" s="110" t="s">
         <v>384</v>
@@ -24300,74 +24305,74 @@
       <c r="A34" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B34" s="173" t="s">
+      <c r="B34" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C34" s="176" t="s">
+      <c r="C34" s="161" t="s">
         <v>516</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E34" s="165"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="172" t="s">
+      <c r="E34" s="150"/>
+      <c r="F34" s="151"/>
+      <c r="G34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H34" s="172" t="s">
+      <c r="H34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I34" s="172" t="s">
+      <c r="I34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J34" s="172" t="s">
+      <c r="J34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K34" s="172" t="s">
+      <c r="K34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L34" s="172" t="s">
+      <c r="L34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M34" s="172" t="s">
+      <c r="M34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N34" s="172" t="s">
+      <c r="N34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O34" s="172" t="s">
+      <c r="O34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P34" s="172" t="s">
+      <c r="P34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q34" s="172" t="s">
+      <c r="Q34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R34" s="172" t="s">
+      <c r="R34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S34" s="172" t="s">
+      <c r="S34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T34" s="172" t="s">
+      <c r="T34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U34" s="172" t="s">
+      <c r="U34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V34" s="172" t="s">
+      <c r="V34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W34" s="172" t="s">
+      <c r="W34" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X34" s="167"/>
+      <c r="X34" s="152"/>
       <c r="Y34" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z34" s="168" t="str">
+      <c r="Z34" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
@@ -24377,74 +24382,74 @@
       <c r="A35" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B35" s="173" t="s">
+      <c r="B35" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C35" s="176" t="s">
+      <c r="C35" s="161" t="s">
         <v>531</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E35" s="165"/>
-      <c r="F35" s="166"/>
-      <c r="G35" s="172" t="s">
+      <c r="E35" s="150"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H35" s="172" t="s">
+      <c r="H35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I35" s="172" t="s">
+      <c r="I35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J35" s="172" t="s">
+      <c r="J35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K35" s="172" t="s">
+      <c r="K35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L35" s="172" t="s">
+      <c r="L35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M35" s="172" t="s">
+      <c r="M35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N35" s="172" t="s">
+      <c r="N35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O35" s="172" t="s">
+      <c r="O35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P35" s="172" t="s">
+      <c r="P35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q35" s="172" t="s">
+      <c r="Q35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R35" s="172" t="s">
+      <c r="R35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S35" s="172" t="s">
+      <c r="S35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T35" s="172" t="s">
+      <c r="T35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U35" s="172" t="s">
+      <c r="U35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V35" s="172" t="s">
+      <c r="V35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W35" s="172" t="s">
+      <c r="W35" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X35" s="167"/>
+      <c r="X35" s="152"/>
       <c r="Y35" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z35" s="168" t="str">
+      <c r="Z35" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
@@ -24454,66 +24459,66 @@
       <c r="A36" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B36" s="173" t="s">
+      <c r="B36" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C36" s="176" t="s">
+      <c r="C36" s="161" t="s">
         <v>530</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E36" s="157"/>
-      <c r="F36" s="158"/>
-      <c r="G36" s="172" t="s">
+      <c r="E36" s="142"/>
+      <c r="F36" s="143"/>
+      <c r="G36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H36" s="172" t="s">
+      <c r="H36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I36" s="172" t="s">
+      <c r="I36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J36" s="172" t="s">
+      <c r="J36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K36" s="172" t="s">
+      <c r="K36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L36" s="172" t="s">
+      <c r="L36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M36" s="172" t="s">
+      <c r="M36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N36" s="172" t="s">
+      <c r="N36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O36" s="172" t="s">
+      <c r="O36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P36" s="172" t="s">
+      <c r="P36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q36" s="172" t="s">
+      <c r="Q36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R36" s="172" t="s">
+      <c r="R36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S36" s="172" t="s">
+      <c r="S36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T36" s="172" t="s">
+      <c r="T36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U36" s="172" t="s">
+      <c r="U36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V36" s="172" t="s">
+      <c r="V36" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W36" s="172" t="s">
+      <c r="W36" s="157" t="s">
         <v>409</v>
       </c>
       <c r="X36" s="110" t="s">
@@ -24533,171 +24538,171 @@
       <c r="A37" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B37" s="173" t="s">
+      <c r="B37" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C37" s="164" t="s">
+      <c r="C37" s="149" t="s">
         <v>519</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E37" s="165"/>
-      <c r="F37" s="166"/>
-      <c r="G37" s="172" t="s">
+      <c r="E37" s="150"/>
+      <c r="F37" s="151"/>
+      <c r="G37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H37" s="172" t="s">
+      <c r="H37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I37" s="172" t="s">
+      <c r="I37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J37" s="172" t="s">
+      <c r="J37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K37" s="172" t="s">
+      <c r="K37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L37" s="172" t="s">
+      <c r="L37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M37" s="172" t="s">
+      <c r="M37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N37" s="172" t="s">
+      <c r="N37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O37" s="172" t="s">
+      <c r="O37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P37" s="172" t="s">
+      <c r="P37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q37" s="172" t="s">
+      <c r="Q37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R37" s="172" t="s">
+      <c r="R37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S37" s="172" t="s">
+      <c r="S37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T37" s="172" t="s">
+      <c r="T37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U37" s="172" t="s">
+      <c r="U37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V37" s="172" t="s">
+      <c r="V37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W37" s="172" t="s">
+      <c r="W37" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X37" s="167"/>
+      <c r="X37" s="152"/>
       <c r="Y37" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z37" s="168" t="str">
+      <c r="Z37" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA37" s="177"/>
+      <c r="AA37" s="162"/>
     </row>
     <row r="38" spans="1:27" ht="15">
       <c r="A38" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="B38" s="173" t="s">
+      <c r="B38" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C38" s="164" t="s">
+      <c r="C38" s="149" t="s">
         <v>520</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E38" s="165"/>
-      <c r="F38" s="166"/>
-      <c r="G38" s="172" t="s">
+      <c r="E38" s="150"/>
+      <c r="F38" s="151"/>
+      <c r="G38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="H38" s="172" t="s">
+      <c r="H38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="I38" s="172" t="s">
+      <c r="I38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="J38" s="172" t="s">
+      <c r="J38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="K38" s="172" t="s">
+      <c r="K38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="L38" s="172" t="s">
+      <c r="L38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="M38" s="172" t="s">
+      <c r="M38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="N38" s="172" t="s">
+      <c r="N38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="O38" s="172" t="s">
+      <c r="O38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="P38" s="172" t="s">
+      <c r="P38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="Q38" s="172" t="s">
+      <c r="Q38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="R38" s="172" t="s">
+      <c r="R38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="S38" s="172" t="s">
+      <c r="S38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="T38" s="172" t="s">
+      <c r="T38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="U38" s="172" t="s">
+      <c r="U38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="V38" s="172" t="s">
+      <c r="V38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="W38" s="172" t="s">
+      <c r="W38" s="157" t="s">
         <v>409</v>
       </c>
-      <c r="X38" s="167"/>
+      <c r="X38" s="152"/>
       <c r="Y38" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z38" s="168" t="str">
+      <c r="Z38" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA38" s="177"/>
+      <c r="AA38" s="162"/>
     </row>
     <row r="39" spans="1:27" ht="15">
       <c r="A39" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B39" s="173" t="s">
+      <c r="B39" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C39" s="171" t="s">
+      <c r="C39" s="156" t="s">
         <v>505</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E39" s="165"/>
-      <c r="F39" s="166"/>
+      <c r="E39" s="150"/>
+      <c r="F39" s="151"/>
       <c r="G39" s="110"/>
       <c r="H39" s="110" t="s">
         <v>384</v>
@@ -24747,32 +24752,32 @@
       <c r="W39" s="110" t="s">
         <v>384</v>
       </c>
-      <c r="X39" s="167"/>
+      <c r="X39" s="152"/>
       <c r="Y39" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z39" s="168" t="str">
+      <c r="Z39" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA39" s="177"/>
+      <c r="AA39" s="162"/>
     </row>
     <row r="40" spans="1:27" ht="15">
       <c r="A40" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B40" s="173" t="s">
+      <c r="B40" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C40" s="164" t="s">
+      <c r="C40" s="149" t="s">
         <v>506</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E40" s="165"/>
-      <c r="F40" s="166"/>
+      <c r="E40" s="150"/>
+      <c r="F40" s="151"/>
       <c r="G40" s="110"/>
       <c r="H40" s="110" t="s">
         <v>384</v>
@@ -24822,32 +24827,32 @@
       <c r="W40" s="110" t="s">
         <v>384</v>
       </c>
-      <c r="X40" s="167"/>
+      <c r="X40" s="152"/>
       <c r="Y40" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z40" s="168" t="str">
+      <c r="Z40" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA40" s="177"/>
+      <c r="AA40" s="162"/>
     </row>
     <row r="41" spans="1:27" ht="15">
       <c r="A41" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B41" s="173" t="s">
+      <c r="B41" s="158" t="s">
         <v>525</v>
       </c>
-      <c r="C41" s="164" t="s">
+      <c r="C41" s="149" t="s">
         <v>507</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E41" s="165"/>
-      <c r="F41" s="166"/>
+      <c r="E41" s="150"/>
+      <c r="F41" s="151"/>
       <c r="G41" s="110"/>
       <c r="H41" s="110" t="s">
         <v>384</v>
@@ -24897,32 +24902,32 @@
       <c r="W41" s="110" t="s">
         <v>384</v>
       </c>
-      <c r="X41" s="167"/>
+      <c r="X41" s="152"/>
       <c r="Y41" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"n") &gt;0,"n","l")</f>
         <v>l</v>
       </c>
-      <c r="Z41" s="168" t="str">
+      <c r="Z41" s="153" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
         <v>l</v>
       </c>
-      <c r="AA41" s="177"/>
+      <c r="AA41" s="162"/>
     </row>
     <row r="42" spans="1:27" ht="15">
       <c r="A42" s="93" t="s">
         <v>384</v>
       </c>
-      <c r="B42" s="170" t="s">
+      <c r="B42" s="155" t="s">
         <v>525</v>
       </c>
-      <c r="C42" s="169" t="s">
+      <c r="C42" s="154" t="s">
         <v>508</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>486</v>
       </c>
-      <c r="E42" s="157"/>
-      <c r="F42" s="158"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="143"/>
       <c r="G42" s="110"/>
       <c r="H42" s="110" t="s">
         <v>384</v>
@@ -30520,33 +30525,33 @@
       <c r="AA160" s="104"/>
     </row>
     <row r="161" spans="1:27" ht="15">
-      <c r="A161" s="178"/>
+      <c r="A161" s="163"/>
       <c r="B161" s="116"/>
-      <c r="C161" s="179"/>
+      <c r="C161" s="164"/>
       <c r="D161" s="109"/>
-      <c r="E161" s="180"/>
-      <c r="F161" s="180"/>
-      <c r="G161" s="181"/>
-      <c r="H161" s="181"/>
-      <c r="I161" s="181"/>
-      <c r="J161" s="181"/>
-      <c r="K161" s="181"/>
-      <c r="L161" s="181"/>
-      <c r="M161" s="181"/>
-      <c r="N161" s="181"/>
-      <c r="O161" s="181"/>
-      <c r="P161" s="181"/>
-      <c r="Q161" s="181"/>
-      <c r="R161" s="181"/>
-      <c r="S161" s="181"/>
-      <c r="T161" s="181"/>
-      <c r="U161" s="181"/>
-      <c r="V161" s="181"/>
-      <c r="W161" s="181"/>
-      <c r="X161" s="181"/>
-      <c r="Y161" s="182"/>
-      <c r="Z161" s="182"/>
-      <c r="AA161" s="183"/>
+      <c r="E161" s="165"/>
+      <c r="F161" s="165"/>
+      <c r="G161" s="166"/>
+      <c r="H161" s="166"/>
+      <c r="I161" s="166"/>
+      <c r="J161" s="166"/>
+      <c r="K161" s="166"/>
+      <c r="L161" s="166"/>
+      <c r="M161" s="166"/>
+      <c r="N161" s="166"/>
+      <c r="O161" s="166"/>
+      <c r="P161" s="166"/>
+      <c r="Q161" s="166"/>
+      <c r="R161" s="166"/>
+      <c r="S161" s="166"/>
+      <c r="T161" s="166"/>
+      <c r="U161" s="166"/>
+      <c r="V161" s="166"/>
+      <c r="W161" s="166"/>
+      <c r="X161" s="166"/>
+      <c r="Y161" s="167"/>
+      <c r="Z161" s="167"/>
+      <c r="AA161" s="168"/>
     </row>
     <row r="167" spans="1:27">
       <c r="G167" s="119" t="s">
@@ -30854,73 +30859,73 @@
     <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="G44:Z161 G43:X43 X23:X42 Y3:Z43 G3:X22 A3:A161 G23:W28">
-    <cfRule type="cellIs" dxfId="18" priority="3763" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="3763" operator="equal">
       <formula>"þ"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3764" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="3764" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="3765" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="3765" operator="equal">
       <formula>"u"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="3766" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="3766" operator="equal">
       <formula>"l"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:Z161 G43:X43 X23:X42 Y3:Z43 G3:X22 G23:W28">
-    <cfRule type="containsText" dxfId="14" priority="3948" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="75" priority="3948" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G167">
-    <cfRule type="cellIs" dxfId="13" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="208" operator="equal">
       <formula>"þ"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="209" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="210" operator="equal">
       <formula>"u"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="211" operator="equal">
       <formula>"l"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29 G30:W42">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="6" operator="equal">
       <formula>"þ"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="7" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="8" operator="equal">
       <formula>"u"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="9" operator="equal">
       <formula>"l"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29 G30:W42">
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="66" priority="10" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",G29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:W29">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="1" operator="equal">
       <formula>"þ"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="2" operator="equal">
       <formula>"n"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="3" operator="equal">
       <formula>"u"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="4" operator="equal">
       <formula>"l"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29:W29">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="o">
+    <cfRule type="containsText" dxfId="61" priority="5" operator="containsText" text="o">
       <formula>NOT(ISERROR(SEARCH("o",H29)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/QA Compilation 2019/QA Report/4. Treasury/Treasury_QA-Report- 06-27-2019-Peachie.xlsx
+++ b/QA Compilation 2019/QA Report/4. Treasury/Treasury_QA-Report- 06-27-2019-Peachie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\QAReport\QA Compilation 2019\QA Report\4. Treasury\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhonc\Desktop\QA\qareport\QA Compilation 2019\QA Report\4. Treasury\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DFC55A-388B-4E9E-B1DF-46BDC423BEF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4B0D0703-9C45-477C-9E59-16E2071193CD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <sheet name="Scope" sheetId="2" state="hidden" r:id="rId8"/>
     <sheet name="Scope (2)" sheetId="5" state="hidden" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId10"/>
     <pivotCache cacheId="1" r:id="rId11"/>
@@ -31,11 +31,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1897,7 +1892,7 @@
     <t>Fig 1.1.1.11 Record of Tax Credit</t>
   </si>
   <si>
-    <t>xxxx</t>
+    <t>j</t>
   </si>
 </sst>
 </file>
@@ -21805,8 +21800,8 @@
   <dimension ref="A1:AA178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <pane ySplit="2" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>

--- a/QA Compilation 2019/QA Report/4. Treasury/Treasury_QA-Report- 06-27-2019-Peachie.xlsx
+++ b/QA Compilation 2019/QA Report/4. Treasury/Treasury_QA-Report- 06-27-2019-Peachie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\QAReport\QA Compilation 2019\QA Report\4. Treasury\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DFC55A-388B-4E9E-B1DF-46BDC423BEF8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4619BCD7-7FC7-4DF3-9B32-5E2C4D28723F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -293,7 +293,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3968" uniqueCount="534">
   <si>
     <t>1.1 Recruitment, Selection and Placement</t>
   </si>
@@ -1895,9 +1895,6 @@
   </si>
   <si>
     <t>Fig 1.1.1.11 Record of Tax Credit</t>
-  </si>
-  <si>
-    <t>xxxx</t>
   </si>
 </sst>
 </file>
@@ -21806,7 +21803,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -22463,7 +22460,7 @@
       <c r="E10" s="148"/>
       <c r="F10" s="106"/>
       <c r="G10" s="169" t="s">
-        <v>534</v>
+        <v>418</v>
       </c>
       <c r="H10" s="169" t="s">
         <v>384</v>
@@ -22520,7 +22517,7 @@
       </c>
       <c r="Z10" s="107" t="str">
         <f>IF(COUNTIF((Table133[[#This Row],[C]:[NF]]),"u") &gt;0,"u","l")</f>
-        <v>l</v>
+        <v>u</v>
       </c>
       <c r="AA10" s="104" t="s">
         <v>524</v>
